--- a/table/C2C.xlsx
+++ b/table/C2C.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>No transfer</t>
   </si>
@@ -87,9 +87,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -392,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E20"/>
+  <dimension ref="A2:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,9 +406,10 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
@@ -420,8 +422,20 @@
       <c r="E2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -437,8 +451,29 @@
       <c r="E3" s="1">
         <v>0.38466666666666699</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f>B3*100</f>
+        <v>27.3333333333333</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:N3" si="0">C3*100</f>
+        <v>31.533333333333303</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>35.733333333333299</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>38.466666666666697</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -454,8 +489,27 @@
       <c r="E4" s="1">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I9" si="1">B4*100</f>
+        <v>43.773333333333298</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J9" si="2">C4*100</f>
+        <v>44.733333333333306</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K9" si="3">D4*100</f>
+        <v>46.6666666666667</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L9" si="4">E4*100</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -471,8 +525,27 @@
       <c r="E5" s="1">
         <v>0.44573333333333298</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>43.3333333333333</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>43.866666666666696</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="3"/>
+        <v>44.3333333333333</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="4"/>
+        <v>44.573333333333295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -488,8 +561,27 @@
       <c r="E6" s="1">
         <v>0.47439999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>38.893333333333302</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>43.266666666666694</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>45.72</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>47.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -505,8 +597,27 @@
       <c r="E7" s="1">
         <v>0.47320000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>37.96</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>42.893333333333302</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="3"/>
+        <v>45.96</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="4"/>
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -522,8 +633,27 @@
       <c r="E8" s="1">
         <v>0.48733333333333301</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>42.626666666666701</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>45.626666666666701</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>47.813333333333304</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
+        <v>48.733333333333299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -539,13 +669,32 @@
       <c r="E9" s="1">
         <v>0.491466666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>43.533333333333303</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>46.453333333333305</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>48.253333333333295</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="4"/>
+        <v>49.146666666666697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
@@ -559,7 +708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -576,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -592,8 +741,24 @@
       <c r="E15" s="1">
         <v>5.3453570294745498E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
+        <f>B15*100</f>
+        <v>5.9876061861626297</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ref="J15:L15" si="5">C15*100</f>
+        <v>6.0133498082613102</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>5.7059276490968704</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
+        <v>5.3453570294745498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -609,8 +774,24 @@
       <c r="E16" s="1">
         <v>5.9858850556255901E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" s="2">
+        <f t="shared" ref="I16:I20" si="6">B16*100</f>
+        <v>5.9588920073246303</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ref="J16:J20" si="7">C16*100</f>
+        <v>6.1448828468630401</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16:K20" si="8">D16*100</f>
+        <v>5.9966738691478803</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" ref="L16:L20" si="9">E16*100</f>
+        <v>5.98588505562559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -626,8 +807,24 @@
       <c r="E17" s="1">
         <v>6.9601245062953607E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <f t="shared" si="6"/>
+        <v>8.4530275671423496</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="7"/>
+        <v>7.6645023842219402</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="8"/>
+        <v>6.4080776392441194</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="9"/>
+        <v>6.9601245062953607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -643,8 +840,24 @@
       <c r="E18" s="1">
         <v>5.7326218652353399E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="2">
+        <f t="shared" si="6"/>
+        <v>5.9853697808395205</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="7"/>
+        <v>5.7683636598199204</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="8"/>
+        <v>6.2468716304437697</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="9"/>
+        <v>5.7326218652353402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -660,8 +873,24 @@
       <c r="E19" s="1">
         <v>6.0088131635460701E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I19" s="2">
+        <f t="shared" si="6"/>
+        <v>6.3450663889054004</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="7"/>
+        <v>5.9913482621811394</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="8"/>
+        <v>5.9231629252037896</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="9"/>
+        <v>6.00881316354607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -676,6 +905,22 @@
       </c>
       <c r="E20" s="1">
         <v>5.9014936180967002E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="6"/>
+        <v>5.5344262586463699</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="7"/>
+        <v>5.3096210927297003</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="8"/>
+        <v>5.7393192289592703</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9014936180967004</v>
       </c>
     </row>
   </sheetData>
